--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -269,6 +269,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ingestionBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+</t>
+  </si>
+  <si>
+    <t>The ID generated by an ingestion service. This represents a producer-submitted message collection</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -276,17 +286,20 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>ingestionBatchId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver</t>
+  </si>
+  <si>
+    <t>The ID for either the client or tenant that holds the contract with the data receiver, as recorded by the data receiver. This ID must be unique to data sent on behalf of that client or tenant within the data receiver systems. The receiver systems should associate this ID to the messages that originate from this client or tenant. This supports traceability, data protection, and data isolation, when appropriate.</t>
+  </si>
+  <si>
+    <t>processClientId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
 </t>
+  </si>
+  <si>
+    <t>The ID of the client as recorded in the data producer or data integrator source system(s)</t>
   </si>
   <si>
     <t>processOrganization</t>
@@ -296,6 +309,12 @@
 </t>
   </si>
   <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+  </si>
+  <si>
     <t>processName</t>
   </si>
   <si>
@@ -303,6 +322,12 @@
 </t>
   </si>
   <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+  </si>
+  <si>
     <t>processVersion</t>
   </si>
   <si>
@@ -310,6 +335,9 @@
 </t>
   </si>
   <si>
+    <t>The version of either the process or the service that has produced the data held in the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processType</t>
   </si>
   <si>
@@ -317,6 +345,9 @@
 </t>
   </si>
   <si>
+    <t>The classification type of the process that has produced the data held in either the FHIR resource or element</t>
+  </si>
+  <si>
     <t>processRecordId</t>
   </si>
   <si>
@@ -324,6 +355,9 @@
 </t>
   </si>
   <si>
+    <t>The record ID that the data producer or data integrator uses internally to identify this data</t>
+  </si>
+  <si>
     <t>processTimestamp</t>
   </si>
   <si>
@@ -331,6 +365,19 @@
 </t>
   </si>
   <si>
+    <t>The timestamp when the data was generated within the FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
+</t>
+  </si>
+  <si>
+    <t>The ID for a record that the data producer or data integrator extracted knowledge from to produce the data within the FHIR resource or element</t>
+  </si>
+  <si>
     <t>sourceFileId</t>
   </si>
   <si>
@@ -338,6 +385,19 @@
 </t>
   </si>
   <si>
+    <t>The ID for a file from which the data producer or data integrator extracted knowledge, to produce the data within this FHIR resource or element</t>
+  </si>
+  <si>
+    <t>sourceRecordType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
+</t>
+  </si>
+  <si>
+    <t>Either the data model type or schema type that generates this FHIR resource</t>
+  </si>
+  <si>
     <t>sourceDataModelVersion</t>
   </si>
   <si>
@@ -345,6 +405,105 @@
 </t>
   </si>
   <si>
+    <t>Version of the source system's data model, used by either the data producer or the data integrator</t>
+  </si>
+  <si>
+    <t>sourceEventTrigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
+</t>
+  </si>
+  <si>
+    <t>The event that is the catalyst for creating or updating this FHIR resource</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0003</t>
+  </si>
+  <si>
+    <t>sourceEventTimestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
+</t>
+  </si>
+  <si>
+    <t>Date and time of the source event that triggers either the creation or updating of this FHIR resource</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+</t>
+  </si>
+  <si>
+    <t>References element level insight results pertaining to the data in this resource instance.</t>
+  </si>
+  <si>
     <t>PractitionerRole.meta.versionId</t>
   </si>
   <si>
@@ -386,10 +545,6 @@
     <t>PractitionerRole.meta.source</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
@@ -462,40 +617,177 @@
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>Meta.tag</t>
   </si>
   <si>
-    <t>PractitionerRole.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>PractitionerRole.language</t>
+    <t>SourceClassificationTag</t>
+  </si>
+  <si>
+    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.code</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.tag.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>PractitionerRole.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>PractitionerRole.language</t>
+  </si>
+  <si>
     <t>Language of the resource content</t>
   </si>
   <si>
@@ -572,12 +864,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -588,6 +874,9 @@
 </t>
   </si>
   <si>
+    <t>Numeric level of the practitioner within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>practitionerHierarchyLevelDescription</t>
   </si>
   <si>
@@ -595,6 +884,9 @@
 </t>
   </si>
   <si>
+    <t>Description of the level of the parent within the organinzational hierarchy</t>
+  </si>
+  <si>
     <t>hierarchyVersionId</t>
   </si>
   <si>
@@ -602,6 +894,9 @@
 </t>
   </si>
   <si>
+    <t>Numeric version of the organinzational hierarchy represented</t>
+  </si>
+  <si>
     <t>hierarchyVersionDate</t>
   </si>
   <si>
@@ -609,6 +904,9 @@
 </t>
   </si>
   <si>
+    <t>Version date of the organinzational hierarchy represented</t>
+  </si>
+  <si>
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
@@ -656,10 +954,6 @@
     <t>PractitionerRole.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Whether this practitioner role record is in active use</t>
   </si>
   <si>
@@ -747,10 +1041,6 @@
     <t>PractitionerRole.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Roles which this practitioner may perform</t>
   </si>
   <si>
@@ -908,9 +1198,6 @@
   </si>
   <si>
     <t>Indicates which days of the week are available between the start and end Times.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The days of the week.</t>
@@ -1162,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1181,7 +1468,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1195,7 +1482,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.74609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1913,7 +2200,7 @@
         <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1996,7 +2283,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>40</v>
@@ -2018,13 +2305,13 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2107,7 +2394,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>40</v>
@@ -2129,13 +2416,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2218,7 +2505,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
@@ -2240,13 +2527,13 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2329,7 +2616,7 @@
         <v>70</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2351,13 +2638,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2440,7 +2727,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2462,13 +2749,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2551,7 +2838,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>40</v>
@@ -2561,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2573,13 +2860,13 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2662,7 +2949,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>40</v>
@@ -2672,7 +2959,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -2684,13 +2971,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2773,7 +3060,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>40</v>
@@ -2783,7 +3070,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2795,13 +3082,13 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2884,7 +3171,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>40</v>
@@ -2894,7 +3181,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2906,13 +3193,13 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2992,9 +3279,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3003,7 +3292,7 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3012,20 +3301,18 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3074,25 +3361,25 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3103,9 +3390,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3123,20 +3412,18 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3185,25 +3472,25 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3214,9 +3501,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3234,20 +3523,18 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3296,25 +3583,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3325,15 +3612,17 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3345,20 +3634,18 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M20" t="s" s="2">
         <v>125</v>
       </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3407,7 +3694,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3419,13 +3706,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3436,7 +3723,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3447,7 +3734,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3456,20 +3743,18 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3494,13 +3779,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3518,25 +3803,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3547,7 +3832,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3558,7 +3843,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3567,20 +3852,18 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3605,31 +3888,31 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3641,7 +3924,7 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
@@ -3658,7 +3941,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3666,7 +3949,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3675,22 +3958,22 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3698,7 +3981,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>40</v>
@@ -3740,10 +4023,10 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3752,13 +4035,13 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3769,7 +4052,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3792,17 +4075,15 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3827,31 +4108,29 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3869,7 +4148,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3880,11 +4159,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3903,17 +4184,15 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3938,13 +4217,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3962,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3980,7 +4257,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3991,18 +4268,20 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -4014,17 +4293,15 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4073,7 +4350,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4085,7 +4362,7 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4102,15 +4379,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>42</v>
@@ -4125,13 +4404,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4170,17 +4449,19 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4198,7 +4479,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4209,17 +4490,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4231,18 +4510,20 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4291,25 +4572,25 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4320,17 +4601,15 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
@@ -4342,18 +4621,20 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4402,25 +4683,25 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4431,11 +4712,9 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4453,18 +4732,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4513,25 +4794,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4542,17 +4823,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
@@ -4564,18 +4843,20 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4624,7 +4905,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4633,16 +4914,16 @@
         <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4653,11 +4934,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4670,26 +4951,24 @@
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I32" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4713,13 +4992,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4737,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4749,13 +5028,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4766,7 +5045,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4789,18 +5068,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4824,31 +5103,29 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4863,23 +5140,25 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4900,26 +5179,22 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4939,13 +5214,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4963,13 +5238,13 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4978,21 +5253,21 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5012,21 +5287,19 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5074,7 +5347,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5086,35 +5359,35 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5123,18 +5396,20 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5171,37 +5446,37 @@
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5212,7 +5487,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5235,16 +5510,20 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5253,7 +5532,7 @@
         <v>40</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>40</v>
@@ -5292,7 +5571,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5307,10 +5586,10 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5321,7 +5600,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5332,7 +5611,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5344,20 +5623,18 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5381,13 +5658,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5405,13 +5682,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5420,13 +5697,13 @@
         <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5434,7 +5711,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5445,7 +5722,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5457,16 +5734,18 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5490,13 +5769,11 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5514,13 +5791,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5529,13 +5806,13 @@
         <v>63</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5543,7 +5820,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5554,7 +5831,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5566,16 +5843,18 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5623,13 +5902,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5638,21 +5917,21 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5663,7 +5942,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5672,19 +5951,23 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5732,13 +6015,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5747,10 +6030,10 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5761,7 +6044,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5772,30 +6055,30 @@
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5843,13 +6126,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -5861,7 +6144,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5872,7 +6155,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5883,7 +6166,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5895,16 +6178,16 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5930,13 +6213,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5954,13 +6237,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -5972,7 +6255,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5983,11 +6266,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6006,15 +6289,17 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6063,7 +6348,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6075,13 +6360,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6092,18 +6377,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6115,16 +6400,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6174,7 +6459,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6186,13 +6471,13 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6203,15 +6488,15 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>42</v>
@@ -6220,26 +6505,22 @@
         <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6275,19 +6556,17 @@
         <v>40</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6305,7 +6584,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6316,18 +6595,20 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6339,13 +6620,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6372,13 +6653,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6396,7 +6677,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6405,16 +6686,16 @@
         <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6425,15 +6706,17 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>50</v>
@@ -6448,13 +6731,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6505,25 +6788,25 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6534,9 +6817,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6557,17 +6842,15 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6616,25 +6899,25 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6645,9 +6928,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6668,17 +6953,15 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6727,25 +7010,25 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6756,39 +7039,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6836,7 +7123,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6848,13 +7135,13 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6865,7 +7152,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6876,7 +7163,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -6885,19 +7172,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6945,47 +7234,47 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -6994,25 +7283,29 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7056,71 +7349,69 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7169,36 +7460,36 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>64</v>
+        <v>311</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7218,16 +7509,16 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7278,10 +7569,10 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>50</v>
@@ -7296,7 +7587,7 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7307,7 +7598,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7315,7 +7606,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>50</v>
@@ -7327,16 +7618,16 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7387,7 +7678,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7405,7 +7696,7 @@
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7416,7 +7707,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7427,7 +7718,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7436,19 +7727,23 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7472,13 +7767,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7496,13 +7791,13 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7511,13 +7806,13 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7525,7 +7820,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7536,7 +7831,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7545,21 +7840,19 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7583,13 +7876,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7607,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7622,20 +7915,2113 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM58">
+  <autoFilter ref="A1:AM77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7645,7 +10031,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,7 @@
     <t>SourceClassificationTag</t>
   </si>
   <si>
-    <t>Identifies the origin of data elements in this FHIR resource, from either primary or secondary source systems</t>
+    <t>Identifies the origin of this FHIR resource, from either a source system of record or derived from a process</t>
   </si>
   <si>
     <t>PractitionerRole.meta.tag.id</t>
@@ -754,7 +754,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-primary-or-secondary</t>
+    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -412,7 +412,7 @@
     <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, the process-organization value is IBM.</t>
+    <t>The organizing entity that owns the process that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, the process-organization value should reflect the organaization reponsible for the service.</t>
   </si>
   <si>
     <t>processName</t>
@@ -425,7 +425,7 @@
     <t>The name of the process or service that has produced the data held in the FHIR resource or element</t>
   </si>
   <si>
-    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an IBM analytic service has been the producer, use the process-name as the name of that analytic service.</t>
+    <t>The name of the process or service that has produced the data held in the FHIR resource or element. Example: If an analytic service has been the producer, use the process-name as the name of that analytic service.</t>
   </si>
   <si>
     <t>processVersion</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1707,39 +1707,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="134.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="134.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="85.47265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="78.58203125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,52 +274,56 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -605,10 +609,6 @@
   </si>
   <si>
     <t>PractitionerRole.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2220,13 +2220,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2277,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2295,7 +2295,7 @@
         <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2306,11 +2306,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2329,16 +2329,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2376,19 +2376,19 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2400,13 +2400,13 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>74</v>
@@ -2442,13 +2442,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2499,7 +2499,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2511,7 +2511,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>74</v>
@@ -2553,13 +2553,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2610,7 +2610,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2622,7 +2622,7 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>74</v>
@@ -2664,13 +2664,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2721,7 +2721,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2733,7 +2733,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2775,13 +2775,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2832,7 +2832,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2844,7 +2844,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>74</v>
@@ -2886,13 +2886,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2943,7 +2943,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2955,7 +2955,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>74</v>
@@ -2997,13 +2997,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3054,7 +3054,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3066,7 +3066,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3083,10 +3083,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>74</v>
@@ -3108,13 +3108,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3165,7 +3165,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3177,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -3194,10 +3194,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>74</v>
@@ -3219,13 +3219,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3276,7 +3276,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3288,7 +3288,7 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -3330,13 +3330,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3387,7 +3387,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3399,7 +3399,7 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -3416,10 +3416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
@@ -3441,13 +3441,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3498,7 +3498,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3510,7 +3510,7 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
@@ -3552,13 +3552,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3609,7 +3609,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3621,7 +3621,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>74</v>
@@ -3663,13 +3663,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3720,7 +3720,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3732,7 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3749,10 +3749,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
@@ -3774,13 +3774,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3831,7 +3831,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3843,7 +3843,7 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3885,13 +3885,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3942,7 +3942,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3954,7 +3954,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3994,13 +3994,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4051,7 +4051,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4069,7 +4069,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4103,13 +4103,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4148,19 +4148,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4172,7 +4172,7 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4212,16 +4212,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
@@ -4271,7 +4271,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>84</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4323,13 +4323,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4368,17 +4368,17 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
@@ -4432,13 +4432,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4465,11 +4465,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4487,7 +4487,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>74</v>
@@ -4541,13 +4541,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4598,7 +4598,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4610,7 +4610,7 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>74</v>
@@ -4652,13 +4652,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4709,7 +4709,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4721,7 +4721,7 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4761,7 +4761,7 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>189</v>
@@ -4983,7 +4983,7 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>200</v>
@@ -5351,7 +5351,7 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>223</v>
@@ -5370,7 +5370,7 @@
         <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>226</v>
@@ -5462,7 +5462,7 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>223</v>
@@ -5538,13 +5538,13 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5595,7 +5595,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5613,7 +5613,7 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5647,16 +5647,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5694,19 +5694,19 @@
         <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5718,13 +5718,13 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5758,7 +5758,7 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>232</v>
@@ -5871,7 +5871,7 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>241</v>
@@ -6091,7 +6091,7 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>258</v>
@@ -6315,7 +6315,7 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>274</v>
@@ -6759,13 +6759,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6804,14 +6804,14 @@
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>303</v>
@@ -6826,7 +6826,7 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -6937,7 +6937,7 @@
         <v>96</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
@@ -7048,7 +7048,7 @@
         <v>96</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
@@ -7159,7 +7159,7 @@
         <v>96</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -7270,7 +7270,7 @@
         <v>96</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7310,7 +7310,7 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>317</v>
@@ -7319,7 +7319,7 @@
         <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>319</v>
@@ -7383,7 +7383,7 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
@@ -7978,7 +7978,7 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>359</v>
@@ -8015,7 +8015,7 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>363</v>
@@ -8091,7 +8091,7 @@
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>368</v>
@@ -8640,13 +8640,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8697,7 +8697,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8715,7 +8715,7 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8749,16 +8749,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8808,7 +8808,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8820,13 +8820,13 @@
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8860,7 +8860,7 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>404</v>
@@ -8869,7 +8869,7 @@
         <v>405</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>319</v>
@@ -8933,7 +8933,7 @@
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
@@ -9522,13 +9522,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9579,7 +9579,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9597,7 +9597,7 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9631,16 +9631,16 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9690,7 +9690,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9702,13 +9702,13 @@
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9742,7 +9742,7 @@
         <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>404</v>
@@ -9751,7 +9751,7 @@
         <v>405</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>319</v>
@@ -9815,7 +9815,7 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
@@ -9855,7 +9855,7 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>430</v>
@@ -9930,7 +9930,7 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -10073,7 +10073,7 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>436</v>
@@ -10259,7 +10259,7 @@
         <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-hierarchy-practitioner-role.xlsx
+++ b/StructureDefinition-hierarchy-practitioner-role.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/hierarchy-practitioner-role</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/hierarchy-practitioner-role</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -293,7 +289,7 @@
     <t>PractitionerRole.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -376,7 +372,7 @@
     <t>ingestionBatchId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ingestion-batch-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/ingestion-batch-id}
 </t>
   </si>
   <si>
@@ -386,7 +382,7 @@
     <t>tenantId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/tenant-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/tenant-id}
 </t>
   </si>
   <si>
@@ -399,7 +395,7 @@
     <t>processClientId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-client-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-client-id}
 </t>
   </si>
   <si>
@@ -409,7 +405,7 @@
     <t>processOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-organization}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-organization}
 </t>
   </si>
   <si>
@@ -422,7 +418,7 @@
     <t>processName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-name}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-name}
 </t>
   </si>
   <si>
@@ -435,7 +431,7 @@
     <t>processVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-version}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-version}
 </t>
   </si>
   <si>
@@ -445,7 +441,7 @@
     <t>processType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-type}
 </t>
   </si>
   <si>
@@ -455,7 +451,7 @@
     <t>processRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-record-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-record-id}
 </t>
   </si>
   <si>
@@ -465,7 +461,7 @@
     <t>processTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/process-timestamp}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-timestamp}
 </t>
   </si>
   <si>
@@ -475,7 +471,7 @@
     <t>sourceRecordId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-id}
 </t>
   </si>
   <si>
@@ -485,7 +481,7 @@
     <t>sourceFileId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-file-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-file-id}
 </t>
   </si>
   <si>
@@ -495,7 +491,7 @@
     <t>sourceRecordType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-record-type}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-record-type}
 </t>
   </si>
   <si>
@@ -505,7 +501,7 @@
     <t>sourceDataModelVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-data-model-version}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-data-model-version}
 </t>
   </si>
   <si>
@@ -515,7 +511,7 @@
     <t>sourceEventTrigger</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger}
 </t>
   </si>
   <si>
@@ -550,7 +546,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/source-event-trigger</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-trigger</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -591,7 +587,7 @@
     <t>sourceEventTimestamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/source-event-timestamp}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/source-event-timestamp}
 </t>
   </si>
   <si>
@@ -601,7 +597,7 @@
     <t>insight</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/insight}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/insight}
 </t>
   </si>
   <si>
@@ -757,7 +753,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/process-meta-source-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/CodeSystem/process-meta-source-classification</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -809,7 +805,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/source-classification-values</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/source-classification-values</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -970,7 +966,7 @@
     <t>practitionerHierarchyLevelCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/practitioner-hierarchy-level-code}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/practitioner-hierarchy-level-code}
 </t>
   </si>
   <si>
@@ -980,7 +976,7 @@
     <t>practitionerHierarchyLevelDescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/practitioner-hierarchy-level-description}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/practitioner-hierarchy-level-description}
 </t>
   </si>
   <si>
@@ -990,7 +986,7 @@
     <t>hierarchyVersionId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/hierarchy-version-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/hierarchy-version-id}
 </t>
   </si>
   <si>
@@ -1000,7 +996,7 @@
     <t>hierarchyVersionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/hierarchy-version-date}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/hierarchy-version-date}
 </t>
   </si>
   <si>
@@ -1730,7 +1726,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1960,16 +1956,16 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1977,7 +1973,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1988,28 +1984,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2059,13 +2055,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -2088,7 +2084,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2099,7 +2095,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -2111,13 +2107,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2168,25 +2164,25 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -2197,7 +2193,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2208,7 +2204,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -2220,13 +2216,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2277,25 +2273,25 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -2306,11 +2302,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2329,16 +2325,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2376,19 +2372,19 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2400,13 +2396,13 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2417,10 +2413,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>74</v>
@@ -2430,7 +2426,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2442,13 +2438,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2499,7 +2495,7 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2511,7 +2507,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -2528,10 +2524,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>74</v>
@@ -2541,7 +2537,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -2553,13 +2549,13 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2610,7 +2606,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2622,7 +2618,7 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2639,10 +2635,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>74</v>
@@ -2652,7 +2648,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -2664,13 +2660,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2721,7 +2717,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2733,7 +2729,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2750,10 +2746,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2763,7 +2759,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -2775,13 +2771,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2832,7 +2828,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2844,7 +2840,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2861,10 +2857,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>74</v>
@@ -2874,7 +2870,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2886,13 +2882,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2943,7 +2939,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2955,7 +2951,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2972,10 +2968,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>74</v>
@@ -2985,7 +2981,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2997,13 +2993,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>136</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3054,7 +3050,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3066,7 +3062,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -3083,10 +3079,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>74</v>
@@ -3096,7 +3092,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -3108,13 +3104,13 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3165,7 +3161,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3177,7 +3173,7 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -3194,10 +3190,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>74</v>
@@ -3219,13 +3215,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3276,7 +3272,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3288,7 +3284,7 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -3305,10 +3301,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -3318,7 +3314,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -3330,13 +3326,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3387,7 +3383,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3399,7 +3395,7 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -3416,10 +3412,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
@@ -3441,13 +3437,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3498,7 +3494,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3510,7 +3506,7 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
@@ -3527,10 +3523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>74</v>
@@ -3552,13 +3548,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3609,7 +3605,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3621,7 +3617,7 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3638,10 +3634,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>74</v>
@@ -3651,7 +3647,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3663,13 +3659,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3720,7 +3716,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3732,7 +3728,7 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3749,10 +3745,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
@@ -3762,7 +3758,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3774,13 +3770,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3831,7 +3827,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3843,7 +3839,7 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3860,10 +3856,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3873,7 +3869,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3885,13 +3881,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3942,7 +3938,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3954,7 +3950,7 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
@@ -3971,7 +3967,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3982,7 +3978,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3994,13 +3990,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4051,25 +4047,25 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -4080,7 +4076,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4103,13 +4099,13 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4148,19 +4144,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4172,7 +4168,7 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -4189,7 +4185,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4197,10 +4193,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4212,16 +4208,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4229,55 +4225,55 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AF23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -4289,7 +4285,7 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4300,7 +4296,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4311,7 +4307,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4323,13 +4319,13 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4368,35 +4364,35 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4407,10 +4403,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
@@ -4420,7 +4416,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4432,13 +4428,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4465,11 +4461,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4487,25 +4483,25 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4516,10 +4512,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>74</v>
@@ -4529,7 +4525,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4541,13 +4537,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4598,7 +4594,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4610,7 +4606,7 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
@@ -4627,10 +4623,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>74</v>
@@ -4652,13 +4648,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4709,7 +4705,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4721,7 +4717,7 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
@@ -4738,7 +4734,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4749,28 +4745,28 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
+      <c r="J28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4820,19 +4816,19 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4849,7 +4845,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4860,28 +4856,28 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4931,19 +4927,19 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
@@ -4960,7 +4956,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4971,28 +4967,28 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5042,19 +5038,19 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
@@ -5071,7 +5067,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5079,31 +5075,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5153,7 +5149,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5165,7 +5161,7 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5202,19 +5198,19 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5240,31 +5236,31 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5276,7 +5272,7 @@
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>74</v>
@@ -5293,7 +5289,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5313,19 +5309,19 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5351,29 +5347,29 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5385,7 +5381,7 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>74</v>
@@ -5402,10 +5398,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>74</v>
@@ -5415,28 +5411,28 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5462,14 +5458,14 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5486,7 +5482,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5498,7 +5494,7 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5526,7 +5522,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5538,13 +5534,13 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5595,25 +5591,25 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5624,11 +5620,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5647,16 +5643,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5694,19 +5690,19 @@
         <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5718,13 +5714,13 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5735,7 +5731,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5743,34 +5739,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5780,64 +5776,64 @@
         <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5848,7 +5844,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5859,28 +5855,28 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5930,25 +5926,25 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5959,7 +5955,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5970,29 +5966,29 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6017,47 +6013,47 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6068,7 +6064,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6079,29 +6075,29 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6150,25 +6146,25 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6179,7 +6175,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6190,31 +6186,31 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6263,25 +6259,25 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6292,7 +6288,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6303,28 +6299,28 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6374,19 +6370,19 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -6403,7 +6399,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6414,7 +6410,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6426,16 +6422,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6461,43 +6457,43 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6514,18 +6510,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
@@ -6537,16 +6533,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6596,25 +6592,25 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6625,11 +6621,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6648,16 +6644,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6707,7 +6703,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6725,7 +6721,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6736,7 +6732,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6744,7 +6740,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>76</v>
@@ -6759,13 +6755,13 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6804,17 +6800,17 @@
         <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6826,7 +6822,7 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -6843,20 +6839,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6868,13 +6864,13 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="L47" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6925,7 +6921,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6934,10 +6930,10 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
@@ -6954,20 +6950,20 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6979,13 +6975,13 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7036,7 +7032,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7045,10 +7041,10 @@
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
@@ -7065,10 +7061,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>74</v>
@@ -7078,7 +7074,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -7090,13 +7086,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7147,7 +7143,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7156,10 +7152,10 @@
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -7176,10 +7172,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>74</v>
@@ -7189,7 +7185,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7201,13 +7197,13 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7258,7 +7254,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7267,10 +7263,10 @@
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7287,11 +7283,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7304,25 +7300,25 @@
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7371,7 +7367,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7383,13 +7379,13 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7400,7 +7396,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7420,20 +7416,20 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7482,7 +7478,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7494,24 +7490,24 @@
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7522,111 +7518,111 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P53" t="s" s="2">
+      <c r="Q53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7637,29 +7633,29 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7708,36 +7704,36 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7745,28 +7741,28 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7817,25 +7813,25 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7846,7 +7842,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7854,28 +7850,28 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7926,25 +7922,25 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7955,7 +7951,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7975,22 +7971,22 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8015,14 +8011,14 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8039,7 +8035,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8051,16 +8047,16 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8068,7 +8064,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8088,16 +8084,16 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8124,14 +8120,14 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8148,7 +8144,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8160,16 +8156,16 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8177,7 +8173,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8197,16 +8193,16 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8257,7 +8253,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8269,24 +8265,24 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8309,13 +8305,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8366,7 +8362,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8378,13 +8374,13 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8395,7 +8391,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8415,20 +8411,20 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8477,7 +8473,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8489,13 +8485,13 @@
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8506,7 +8502,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8529,16 +8525,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8588,7 +8584,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8600,13 +8596,13 @@
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8617,7 +8613,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8628,7 +8624,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8640,13 +8636,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8697,25 +8693,25 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8726,11 +8722,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8749,16 +8745,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8808,7 +8804,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8820,13 +8816,13 @@
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8837,11 +8833,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8854,25 +8850,25 @@
         <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8921,7 +8917,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8933,13 +8929,13 @@
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8950,7 +8946,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8973,13 +8969,13 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9006,14 +9002,14 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9030,7 +9026,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9042,13 +9038,13 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -9059,7 +9055,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9070,7 +9066,7 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -9082,13 +9078,13 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9139,25 +9135,25 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9168,7 +9164,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9179,7 +9175,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -9191,16 +9187,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9250,25 +9246,25 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9279,7 +9275,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9290,7 +9286,7 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
@@ -9302,16 +9298,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9361,25 +9357,25 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9390,7 +9386,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9413,13 +9409,13 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9470,7 +9466,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9482,13 +9478,13 @@
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9499,7 +9495,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9510,7 +9506,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9522,13 +9518,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9579,25 +9575,25 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9608,11 +9604,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9631,16 +9627,16 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9690,7 +9686,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9702,13 +9698,13 @@
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9719,11 +9715,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9736,25 +9732,25 @@
         <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9803,7 +9799,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9815,13 +9811,13 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9832,7 +9828,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9840,10 +9836,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>74</v>
@@ -9855,13 +9851,13 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9912,25 +9908,25 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
@@ -9941,7 +9937,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9952,7 +9948,7 @@
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
@@ -9964,13 +9960,13 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10021,25 +10017,25 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
@@ -10050,7 +10046,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10073,13 +10069,13 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10130,25 +10126,25 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
@@ -10159,7 +10155,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10182,17 +10178,17 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -10241,7 +10237,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10253,13 +10249,13 @@
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
